--- a/tests_cases/TC-Print3-10.xlsx
+++ b/tests_cases/TC-Print3-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE5443-F566-4ABA-AE14-F06DCDC467BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB1C80-6DA4-44BD-B439-860B7D2FA475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4B15C04-CD6E-4D1D-B264-8BC23BF9023C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -80,15 +80,9 @@
     <t>El usuario tiene que estar logeado en la pagina</t>
   </si>
   <si>
-    <t>Producto que desea comprar: Iphone15</t>
-  </si>
-  <si>
     <t>No hay validacion de Stock</t>
   </si>
   <si>
-    <t>Segundo producto: cable de Iphone15</t>
-  </si>
-  <si>
     <t>Se puede agregar un producto a la vez</t>
   </si>
   <si>
@@ -126,13 +120,46 @@
   </si>
   <si>
     <t>TC-Print 3-10</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Tester: Ignacio Tsai</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>didn't turn out as we expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>DF-009: El buscador de la pagina no funciona (Mismo error al DF-007)</t>
+  </si>
+  <si>
+    <t>Producto que desea comprar:"Fisrt"</t>
+  </si>
+  <si>
+    <t>Segundo producto:  "Second"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +225,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +267,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -429,13 +495,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -446,12 +612,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -495,30 +655,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -528,9 +733,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -540,44 +742,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8030C9DB-DE80-4084-8E7E-6D47A73EFC52}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{C2B019CF-D63E-4BDC-BF3A-72F7D32B7A13}"/>
@@ -892,28 +1099,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A88D64E-6CA4-4E36-99ED-AD955DC773B6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -922,153 +1132,243 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23">
+      <c r="C8" s="37"/>
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="C9" s="39"/>
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="E9" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>3</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="23">
-        <v>2</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>3</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="B14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23">
-        <v>3</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="E16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="36" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="B18" s="28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>1</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <v>1</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="46" t="s">
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+    </row>
+    <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
@@ -1077,8 +1377,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print3-10.xlsx
+++ b/tests_cases/TC-Print3-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AB1C80-6DA4-44BD-B439-860B7D2FA475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07B6FA-4711-428E-9B9E-84DBF79C4604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4B15C04-CD6E-4D1D-B264-8BC23BF9023C}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>HU-5</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Segundo producto:  "Second"</t>
+  </si>
+  <si>
+    <t>PE-53</t>
   </si>
 </sst>
 </file>
@@ -667,12 +667,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,6 +676,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,68 +775,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A88D64E-6CA4-4E36-99ED-AD955DC773B6}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,15 +1115,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1179,191 +1179,190 @@
       <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="19">
         <v>3</v>
       </c>
       <c r="E10" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="B18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>1</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>1</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56" t="s">
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-    </row>
-    <row r="28" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A27:C27"/>
+  <mergeCells count="20">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="A21:H21"/>
@@ -1373,10 +1372,12 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
